--- a/纠错本.xlsx
+++ b/纠错本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="14265"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>错误描述</t>
   </si>
@@ -44,7 +44,7 @@
     <t>使用axios请求数据时，参数拼接到了url</t>
   </si>
   <si>
-    <t>使用了form，form没用设置method时会默认使用get</t>
+    <t>使用了form，form没有设置method时会默认使用get</t>
   </si>
   <si>
     <t>vue html中动态绑定背景图片不显示</t>
@@ -177,6 +177,102 @@
     <t>组件没有渲染完成，JS就已经执行所以获取到的高度是0，使用this.$nextTick()</t>
   </si>
   <si>
+    <t>设置前景图片时会遮挡下层div</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF859900"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>给前景遮挡图片层设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF859900"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>pointer-events:none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF859900"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，取消触发其鼠标事件</t>
+    </r>
+  </si>
+  <si>
+    <t>vue中图片加载错误时设置默认图片</t>
+  </si>
+  <si>
+    <t>&lt;img v-if="item.faceImageURL" :key="item.faceImageURL" v-lazy="{src: api+item.faceImageURL, error: require('../../../assets/images/default-face.png')}" alt /&gt;
+             &lt;img src="../../../assets/images/default-face.png" alt v-else&gt;</t>
+  </si>
+  <si>
+    <t>antV图标显示错误，纵坐标及图表位置错位</t>
+  </si>
+  <si>
+    <r>
+      <t>日期格式错误，值必须为数值，日期格式为日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+  </si>
+  <si>
+    <t>converData(list) {
+      let data = [];
+      list.forEach(item =&gt; {
+        let itemKey = item.key
+          .split("-")
+          .reverse()
+          .join("/");
+        data.push({ key: itemKey, value: Number(item.value) });
+      });
+      return data;
+    }</t>
+  </si>
+  <si>
     <t>No Entity Framework provider found for the ADO.NET provider with invariant name</t>
   </si>
   <si>
@@ -188,12 +284,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,88 +316,34 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10.5"/>
+      <color rgb="FF859900"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -316,22 +358,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -340,8 +366,98 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -350,15 +466,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,12 +484,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF859900"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -385,19 +494,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,7 +620,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,7 +638,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,114 +668,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,18 +675,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,20 +690,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,26 +742,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,17 +775,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,10 +791,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -694,137 +803,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -836,6 +945,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1157,10 +1275,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1258,15 +1376,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="2:2">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" ht="14.25" spans="2:2">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" ht="14.25" spans="2:2">
-      <c r="B12" s="4"/>
-    </row>
+    <row r="10" ht="14.25" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="93" customHeight="1" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="162" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" ht="71" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1279,7 +1416,7 @@
   <sheetPr/>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1304,10 +1441,10 @@
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1"/>

--- a/纠错本.xlsx
+++ b/纠错本.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>错误描述</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>日期格式错误，值必须为数值，日期格式为日</t>
     </r>
     <r>
@@ -273,6 +279,20 @@
     }</t>
   </si>
   <si>
+    <t>使用el-upload图片上传</t>
+  </si>
+  <si>
+    <t>后端获取的是formdata值，但是前端request拦截中对post类型的data进行了qs.stringify(config.data)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> const formData = new FormData();
+      formData.append("type", type);
+      formData.append("ImgFile", file.raw);</t>
+  </si>
+  <si>
+    <t>在请求拦截中做一个config.data的类型判定：if (Object.prototype.toString.call(config.data) != '[object FormData]')</t>
+  </si>
+  <si>
     <t>No Entity Framework provider found for the ADO.NET provider with invariant name</t>
   </si>
   <si>
@@ -284,9 +304,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -336,7 +356,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -351,6 +440,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -358,115 +455,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,37 +514,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,6 +622,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -554,7 +646,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,6 +658,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,103 +676,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,11 +708,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,17 +762,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,51 +805,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,16 +823,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -821,115 +841,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1275,18 +1295,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1403,7 +1424,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" ht="71" customHeight="1"/>
+    <row r="13" ht="99" customHeight="1" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1441,10 +1475,10 @@
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" ht="27" customHeight="1"/>

--- a/纠错本.xlsx
+++ b/纠错本.xlsx
@@ -304,9 +304,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -355,47 +355,76 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,90 +439,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,6 +514,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -526,175 +562,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,6 +705,54 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -726,23 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,49 +805,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,16 +823,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -841,115 +841,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,8 +1297,8 @@
   <sheetPr/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/纠错本.xlsx
+++ b/纠错本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265"/>
+    <workbookView windowWidth="19215" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -304,10 +304,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -355,16 +355,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -372,14 +364,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,17 +378,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -415,6 +394,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -422,78 +431,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -514,139 +514,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,42 +695,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,6 +713,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,8 +774,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -756,45 +795,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -811,10 +811,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -823,19 +823,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -844,112 +844,112 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1298,12 +1298,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="36.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
@@ -1397,7 +1397,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" ht="162" spans="1:3">
+    <row r="12" ht="156.75" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -1454,7 +1454,7 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="33.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="92.625" style="1" customWidth="1"/>
@@ -1490,19 +1490,19 @@
     <row r="7" ht="48" customHeight="1" spans="2:2">
       <c r="B7" s="3"/>
     </row>
-    <row r="8" ht="14.25" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="3"/>
     </row>
     <row r="9" ht="82" customHeight="1" spans="2:2">
       <c r="B9" s="4"/>
     </row>
-    <row r="10" ht="14.25" spans="2:2">
+    <row r="10" spans="2:2">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" ht="14.25" spans="2:2">
+    <row r="11" spans="2:2">
       <c r="B11" s="4"/>
     </row>
-    <row r="12" ht="14.25" spans="2:2">
+    <row r="12" spans="2:2">
       <c r="B12" s="4"/>
     </row>
   </sheetData>
